--- a/实验内容/实验二/B-G_4_25评审汇总.xlsx
+++ b/实验内容/实验二/B-G_4_25评审汇总.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Istudy\Desktop\评审单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HMH/胡明昊/研究生期间/课件/研一下/软工实验/我们的/17TeamB_blade/实验内容/实验二/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14400" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,13 +236,17 @@
   </si>
   <si>
     <t>考虑RUCM内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,29 +294,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,23 +324,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -392,28 +399,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,64 +743,64 @@
   <dimension ref="A4:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A18" sqref="A18:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="34.75" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>42848</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
@@ -805,12 +815,12 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>42850</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
@@ -828,12 +838,12 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
@@ -854,12 +864,12 @@
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
@@ -880,12 +890,12 @@
       <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
@@ -906,12 +916,12 @@
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
@@ -932,12 +942,12 @@
       <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -956,12 +966,12 @@
       <c r="B13" s="11">
         <v>3.2</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
@@ -982,12 +992,12 @@
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,12 +1018,12 @@
       <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,24 +1037,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
@@ -1060,12 +1070,12 @@
       <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,42 +1090,36 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>10</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1123,6 +1127,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B4:J4"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
@@ -1139,8 +1145,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="B4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
